--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
@@ -531,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1443736666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.433121</v>
+      </c>
+      <c r="I2">
+        <v>0.7378778224885942</v>
+      </c>
+      <c r="J2">
+        <v>0.7378778224885942</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.211547</v>
-      </c>
-      <c r="H2">
-        <v>0.634641</v>
-      </c>
-      <c r="I2">
-        <v>0.7041286388539399</v>
-      </c>
-      <c r="J2">
-        <v>0.7041286388539399</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.124863</v>
+        <v>0.038663</v>
       </c>
       <c r="N2">
-        <v>0.3745890000000001</v>
+        <v>0.115989</v>
       </c>
       <c r="O2">
-        <v>0.2257467307647109</v>
+        <v>0.05376113331800686</v>
       </c>
       <c r="P2">
-        <v>0.2257467307647109</v>
+        <v>0.05376113331800687</v>
       </c>
       <c r="Q2">
-        <v>0.026414393061</v>
+        <v>0.005581919074333333</v>
       </c>
       <c r="R2">
-        <v>0.237729537549</v>
+        <v>0.050237271669</v>
       </c>
       <c r="S2">
-        <v>0.1589547382590827</v>
+        <v>0.03966914798720991</v>
       </c>
       <c r="T2">
-        <v>0.1589547382590827</v>
+        <v>0.03966914798720992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H3">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.265327</v>
       </c>
       <c r="O3">
-        <v>0.159899791060625</v>
+        <v>0.1229795947880127</v>
       </c>
       <c r="P3">
-        <v>0.1598997910606249</v>
+        <v>0.1229795947880127</v>
       </c>
       <c r="Q3">
-        <v>0.01870971028966667</v>
+        <v>0.01276874395188889</v>
       </c>
       <c r="R3">
-        <v>0.168387392607</v>
+        <v>0.114918695567</v>
       </c>
       <c r="S3">
-        <v>0.1125900222325472</v>
+        <v>0.09074391561270849</v>
       </c>
       <c r="T3">
-        <v>0.1125900222325472</v>
+        <v>0.0907439156127085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1443736666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.433121</v>
+      </c>
+      <c r="I4">
+        <v>0.7378778224885942</v>
+      </c>
+      <c r="J4">
+        <v>0.7378778224885942</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.211547</v>
-      </c>
-      <c r="H4">
-        <v>0.634641</v>
-      </c>
-      <c r="I4">
-        <v>0.7041286388539399</v>
-      </c>
-      <c r="J4">
-        <v>0.7041286388539399</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.03507633333333333</v>
+        <v>0.074226</v>
       </c>
       <c r="N4">
-        <v>0.105229</v>
+        <v>0.222678</v>
       </c>
       <c r="O4">
-        <v>0.06341644504147147</v>
+        <v>0.103211698048842</v>
       </c>
       <c r="P4">
-        <v>0.06341644504147147</v>
+        <v>0.103211698048842</v>
       </c>
       <c r="Q4">
-        <v>0.007420293087666666</v>
+        <v>0.010716279782</v>
       </c>
       <c r="R4">
-        <v>0.066782637789</v>
+        <v>0.096446518038</v>
       </c>
       <c r="S4">
-        <v>0.044653335128007</v>
+        <v>0.0761576230116298</v>
       </c>
       <c r="T4">
-        <v>0.044653335128007</v>
+        <v>0.07615762301162982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H5">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3047293333333334</v>
+        <v>0.5178313333333334</v>
       </c>
       <c r="N5">
-        <v>0.914188</v>
+        <v>1.553494</v>
       </c>
       <c r="O5">
-        <v>0.5509370331331926</v>
+        <v>0.7200475738451385</v>
       </c>
       <c r="P5">
-        <v>0.5509370331331926</v>
+        <v>0.7200475738451385</v>
       </c>
       <c r="Q5">
-        <v>0.06446457627866667</v>
+        <v>0.07476120830822224</v>
       </c>
       <c r="R5">
-        <v>0.580181186508</v>
+        <v>0.6728508747740001</v>
       </c>
       <c r="S5">
-        <v>0.3879305432343029</v>
+        <v>0.531307135877046</v>
       </c>
       <c r="T5">
-        <v>0.3879305432343029</v>
+        <v>0.531307135877046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H6">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.124863</v>
+        <v>0.038663</v>
       </c>
       <c r="N6">
-        <v>0.3745890000000001</v>
+        <v>0.115989</v>
       </c>
       <c r="O6">
-        <v>0.2257467307647109</v>
+        <v>0.05376113331800686</v>
       </c>
       <c r="P6">
-        <v>0.2257467307647109</v>
+        <v>0.05376113331800687</v>
       </c>
       <c r="Q6">
-        <v>0.011099196933</v>
+        <v>0.001982909281</v>
       </c>
       <c r="R6">
-        <v>0.09989277239700001</v>
+        <v>0.017846183529</v>
       </c>
       <c r="S6">
-        <v>0.06679199250562819</v>
+        <v>0.01409198533079694</v>
       </c>
       <c r="T6">
-        <v>0.06679199250562817</v>
+        <v>0.01409198533079695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H7">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.265327</v>
       </c>
       <c r="O7">
-        <v>0.159899791060625</v>
+        <v>0.1229795947880127</v>
       </c>
       <c r="P7">
-        <v>0.1598997910606249</v>
+        <v>0.1229795947880127</v>
       </c>
       <c r="Q7">
-        <v>0.007861727452333333</v>
+        <v>0.004535941949666666</v>
       </c>
       <c r="R7">
-        <v>0.070755547071</v>
+        <v>0.040823477547</v>
       </c>
       <c r="S7">
-        <v>0.04730976882807772</v>
+        <v>0.03223567917530422</v>
       </c>
       <c r="T7">
-        <v>0.04730976882807771</v>
+        <v>0.03223567917530423</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H8">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.03507633333333333</v>
+        <v>0.074226</v>
       </c>
       <c r="N8">
-        <v>0.105229</v>
+        <v>0.222678</v>
       </c>
       <c r="O8">
-        <v>0.06341644504147147</v>
+        <v>0.103211698048842</v>
       </c>
       <c r="P8">
-        <v>0.06341644504147147</v>
+        <v>0.103211698048842</v>
       </c>
       <c r="Q8">
-        <v>0.003117970346333333</v>
+        <v>0.003806828862</v>
       </c>
       <c r="R8">
-        <v>0.02806173311699999</v>
+        <v>0.034261459758</v>
       </c>
       <c r="S8">
-        <v>0.01876310991346448</v>
+        <v>0.02705407503721217</v>
       </c>
       <c r="T8">
-        <v>0.01876310991346448</v>
+        <v>0.02705407503721218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H9">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3047293333333334</v>
+        <v>0.5178313333333334</v>
       </c>
       <c r="N9">
-        <v>0.914188</v>
+        <v>1.553494</v>
       </c>
       <c r="O9">
-        <v>0.5509370331331926</v>
+        <v>0.7200475738451385</v>
       </c>
       <c r="P9">
-        <v>0.5509370331331926</v>
+        <v>0.7200475738451385</v>
       </c>
       <c r="Q9">
-        <v>0.02708769516933333</v>
+        <v>0.02655801559266667</v>
       </c>
       <c r="R9">
-        <v>0.243789256524</v>
+        <v>0.239022140334</v>
       </c>
       <c r="S9">
-        <v>0.1630064898988897</v>
+        <v>0.1887404379680925</v>
       </c>
       <c r="T9">
-        <v>0.1630064898988897</v>
+        <v>0.1887404379680925</v>
       </c>
     </row>
   </sheetData>
